--- a/Collections/EURO/Latvia/#EURO#Latvia#Regular#[2014-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Latvia/#EURO#Latvia#Regular#[2014-present]#circulation_quality%varieties.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\Евро\Latvia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\Latvia\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -432,7 +432,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="46">
   <si>
     <t>-</t>
   </si>
@@ -455,9 +455,6 @@
     <t>Subtype_2</t>
   </si>
   <si>
-    <t>Copper plated Steel</t>
-  </si>
-  <si>
     <t>1cent</t>
   </si>
   <si>
@@ -470,9 +467,6 @@
     <t>10cents</t>
   </si>
   <si>
-    <t>Brass</t>
-  </si>
-  <si>
     <t>20cents</t>
   </si>
   <si>
@@ -482,9 +476,6 @@
     <t>1€</t>
   </si>
   <si>
-    <t>Bi-Metallic</t>
-  </si>
-  <si>
     <t>№</t>
   </si>
   <si>
@@ -564,6 +555,21 @@
   </si>
   <si>
     <t>20.035.000</t>
+  </si>
+  <si>
+    <t>Obv: Without mint symbol</t>
+  </si>
+  <si>
+    <t>Rev: new map of Europe</t>
+  </si>
+  <si>
+    <t>Obv: Lesser coat of arms of Latvia</t>
+  </si>
+  <si>
+    <t>Obv: Greater coat of arms of Latvia</t>
+  </si>
+  <si>
+    <t>Obv: Latvian maiden</t>
   </si>
 </sst>
 </file>
@@ -832,7 +838,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -900,6 +906,9 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -927,8 +936,11 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -936,14 +948,15 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="11">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1009,63 +1022,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1097,9 +1053,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="17"/>
-    <tableColumn id="2" name="Link" dataDxfId="16" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="15"/>
+    <tableColumn id="1" name="№" dataDxfId="2"/>
+    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1370,11 +1326,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1389,27 +1345,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="28"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1417,10 +1373,10 @@
         <v>6</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -1429,12 +1385,14 @@
         <v>2014</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="9"/>
+        <v>43</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>41</v>
+      </c>
       <c r="D3" s="9"/>
       <c r="E3" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F3" s="18">
         <v>0</v>
@@ -1449,12 +1407,14 @@
         <v>2015</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="9"/>
+        <v>43</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>41</v>
+      </c>
       <c r="D4" s="9"/>
-      <c r="E4" s="34" t="s">
-        <v>34</v>
+      <c r="E4" s="25" t="s">
+        <v>31</v>
       </c>
       <c r="F4" s="18" t="s">
         <v>0</v>
@@ -1469,12 +1429,14 @@
         <v>2016</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="9"/>
+        <v>43</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>41</v>
+      </c>
       <c r="D5" s="9"/>
-      <c r="E5" s="34" t="s">
-        <v>35</v>
+      <c r="E5" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="F5" s="18" t="s">
         <v>0</v>
@@ -1515,7 +1477,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F6">
-    <cfRule type="containsText" dxfId="14" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1545,7 +1507,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G3" sqref="G3:G6"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1560,27 +1522,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="28"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1588,10 +1550,10 @@
         <v>6</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -1600,12 +1562,14 @@
         <v>2014</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="9"/>
+        <v>43</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>41</v>
+      </c>
       <c r="D3" s="9"/>
       <c r="E3" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F3" s="18">
         <v>0</v>
@@ -1620,12 +1584,14 @@
         <v>2015</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="9"/>
+        <v>43</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>41</v>
+      </c>
       <c r="D4" s="9"/>
-      <c r="E4" s="34" t="s">
-        <v>34</v>
+      <c r="E4" s="25" t="s">
+        <v>31</v>
       </c>
       <c r="F4" s="18" t="s">
         <v>0</v>
@@ -1640,12 +1606,14 @@
         <v>2016</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="9"/>
+        <v>43</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>41</v>
+      </c>
       <c r="D5" s="9"/>
-      <c r="E5" s="34" t="s">
-        <v>35</v>
+      <c r="E5" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="F5" s="18" t="s">
         <v>0</v>
@@ -1686,7 +1654,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F6">
-    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1716,7 +1684,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G3" sqref="G3:G6"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1731,27 +1699,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="28"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1759,10 +1727,10 @@
         <v>6</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -1771,12 +1739,14 @@
         <v>2014</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="9"/>
+        <v>43</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>41</v>
+      </c>
       <c r="D3" s="9"/>
       <c r="E3" s="10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F3" s="18">
         <v>0</v>
@@ -1791,12 +1761,14 @@
         <v>2015</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="9"/>
+        <v>43</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>41</v>
+      </c>
       <c r="D4" s="9"/>
-      <c r="E4" s="34" t="s">
-        <v>34</v>
+      <c r="E4" s="25" t="s">
+        <v>31</v>
       </c>
       <c r="F4" s="18" t="s">
         <v>0</v>
@@ -1811,12 +1783,14 @@
         <v>2016</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="9"/>
+        <v>43</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>41</v>
+      </c>
       <c r="D5" s="9"/>
-      <c r="E5" s="34" t="s">
-        <v>35</v>
+      <c r="E5" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="F5" s="18" t="s">
         <v>0</v>
@@ -1857,7 +1831,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F6">
-    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1887,7 +1861,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G3" sqref="G3:G6"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1902,27 +1876,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="33"/>
+      <c r="D1" s="34"/>
       <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="30"/>
-      <c r="B2" s="32"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1930,10 +1904,10 @@
         <v>6</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -1941,13 +1915,17 @@
       <c r="A3" s="7">
         <v>2014</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
+      <c r="B3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>42</v>
+      </c>
       <c r="E3" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F3" s="18">
         <v>0</v>
@@ -1961,13 +1939,17 @@
       <c r="A4" s="7">
         <v>2015</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="34" t="s">
-        <v>34</v>
+      <c r="B4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>31</v>
       </c>
       <c r="F4" s="18" t="s">
         <v>0</v>
@@ -1981,13 +1963,17 @@
       <c r="A5" s="7">
         <v>2016</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="34" t="s">
-        <v>35</v>
+      <c r="B5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="F5" s="18" t="s">
         <v>0</v>
@@ -2028,7 +2014,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F6">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2058,7 +2044,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G3" sqref="G3:G6"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2073,27 +2059,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="28"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
@@ -2101,10 +2087,10 @@
         <v>6</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -2112,13 +2098,17 @@
       <c r="A3" s="7">
         <v>2014</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
+      <c r="B3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>42</v>
+      </c>
       <c r="E3" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F3" s="18">
         <v>0</v>
@@ -2132,13 +2122,17 @@
       <c r="A4" s="7">
         <v>2015</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="34" t="s">
-        <v>34</v>
+      <c r="B4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>31</v>
       </c>
       <c r="F4" s="18" t="s">
         <v>0</v>
@@ -2152,13 +2146,17 @@
       <c r="A5" s="7">
         <v>2016</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="34" t="s">
-        <v>35</v>
+      <c r="B5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="F5" s="18" t="s">
         <v>0</v>
@@ -2229,7 +2227,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G3" sqref="G3:G6"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2244,27 +2242,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="28"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
@@ -2272,10 +2270,10 @@
         <v>6</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -2283,13 +2281,17 @@
       <c r="A3" s="7">
         <v>2014</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
+      <c r="B3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>42</v>
+      </c>
       <c r="E3" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F3" s="18">
         <v>0</v>
@@ -2303,13 +2305,17 @@
       <c r="A4" s="7">
         <v>2015</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="34" t="s">
-        <v>34</v>
+      <c r="B4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>31</v>
       </c>
       <c r="F4" s="18" t="s">
         <v>0</v>
@@ -2323,15 +2329,202 @@
       <c r="A5" s="7">
         <v>2016</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="34" t="s">
-        <v>35</v>
+      <c r="B5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="F5" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="7">
+        <v>2017</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F3:F6">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F6">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="29"/>
+      <c r="E1" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="7">
+        <v>2014</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="18">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2" t="str">
+        <f t="shared" ref="G3:G6" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="7">
+        <v>2015</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="7">
+        <v>2016</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="18">
         <v>0</v>
       </c>
       <c r="G5" s="2" t="str">
@@ -2392,15 +2585,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G3" sqref="G3:G6"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2415,27 +2608,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="28"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
@@ -2443,10 +2636,10 @@
         <v>6</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -2455,12 +2648,16 @@
         <v>2014</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
+        <v>45</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>42</v>
+      </c>
       <c r="E3" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F3" s="18">
         <v>0</v>
@@ -2475,12 +2672,16 @@
         <v>2015</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="34" t="s">
-        <v>34</v>
+        <v>45</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>31</v>
       </c>
       <c r="F4" s="18" t="s">
         <v>0</v>
@@ -2495,14 +2696,18 @@
         <v>2016</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="18">
+      <c r="E5" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="18" t="s">
         <v>0</v>
       </c>
       <c r="G5" s="2" t="str">
@@ -2541,178 +2746,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F6">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F6">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="3" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="7">
-        <v>2014</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="18">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2" t="str">
-        <f t="shared" ref="G3:G6" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="7">
-        <v>2015</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="7">
-        <v>2016</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="7">
-        <v>2017</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="F3:F6">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2754,13 +2788,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2768,10 +2802,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2779,10 +2813,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2790,10 +2824,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2801,10 +2835,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2812,10 +2846,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2823,10 +2857,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="19" t="s">
         <v>27</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Collections/EURO/Latvia/#EURO#Latvia#Regular#[2014-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Latvia/#EURO#Latvia#Regular#[2014-present]#circulation_quality%varieties.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\Latvia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CoinCollection\Collections\EURO\Latvia\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{317CEBFD-01AF-41D5-BD7C-ED0918CC1CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -22,7 +23,7 @@
     <sheet name="2€" sheetId="12" r:id="rId8"/>
     <sheet name="Links" sheetId="6" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,12 +33,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Илюшин Алексей</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -57,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -82,12 +83,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Илюшин Алексей</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -107,7 +108,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -132,12 +133,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Илюшин Алексей</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -157,7 +158,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -182,12 +183,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Илюшин Алексей</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -207,7 +208,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -232,12 +233,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Илюшин Алексей</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -257,7 +258,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -282,12 +283,12 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Илюшин Алексей</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -307,7 +308,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -332,12 +333,12 @@
 </file>
 
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Илюшин Алексей</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -357,7 +358,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
       <text>
         <r>
           <rPr>
@@ -382,12 +383,12 @@
 </file>
 
 <file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Илюшин Алексей</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
       <text>
         <r>
           <rPr>
@@ -407,7 +408,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000002000000}">
       <text>
         <r>
           <rPr>
@@ -432,7 +433,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="48">
   <si>
     <t>-</t>
   </si>
@@ -570,12 +571,18 @@
   </si>
   <si>
     <t>Obv: Latvian maiden</t>
+  </si>
+  <si>
+    <t>7.000</t>
+  </si>
+  <si>
+    <t>15.007.000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -909,6 +916,12 @@
     <xf numFmtId="3" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -936,19 +949,213 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="36">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1046,16 +1253,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
-  <autoFilter ref="A1:C7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
+  <autoFilter ref="A1:C7" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="2"/>
-    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="26" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1323,38 +1530,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3:B5"/>
+      <selection pane="bottomRight" activeCell="G9" sqref="A7:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="29"/>
+      <c r="D1" s="31"/>
       <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
@@ -1363,9 +1570,9 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1380,14 +1587,14 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2014</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="26" t="s">
         <v>41</v>
       </c>
       <c r="D3" s="9"/>
@@ -1402,14 +1609,14 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>2015</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="26" t="s">
         <v>41</v>
       </c>
       <c r="D4" s="9"/>
@@ -1424,14 +1631,14 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>2016</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="26" t="s">
         <v>41</v>
       </c>
       <c r="D5" s="9"/>
@@ -1446,7 +1653,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>2017</v>
       </c>
@@ -1467,6 +1674,72 @@
       </c>
       <c r="G6" s="2" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>2018</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2" t="str">
+        <f t="shared" ref="G7:G9" si="1">IF(OR(AND(F7&gt;1,F7&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>2019</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1477,12 +1750,12 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F6">
-    <cfRule type="containsText" dxfId="10" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="35" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F6">
-    <cfRule type="colorScale" priority="22">
+    <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -1493,172 +1766,46 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3:B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="3" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="7">
-        <v>2014</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="18">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2" t="str">
-        <f t="shared" ref="G3:G6" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="7">
-        <v>2015</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="7">
-        <v>2016</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="7">
-        <v>2017</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="F3:F6">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F6">
+  <conditionalFormatting sqref="F7">
+    <cfRule type="containsText" dxfId="24" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="containsText" dxfId="23" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9">
+    <cfRule type="containsText" dxfId="22" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F9))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1676,50 +1823,50 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J1" sqref="J1"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3:B5"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="29"/>
+      <c r="D1" s="31"/>
       <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1734,36 +1881,36 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2014</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="26" t="s">
         <v>41</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F3" s="18">
         <v>0</v>
       </c>
       <c r="G3" s="2" t="str">
-        <f t="shared" ref="G3:G6" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" ref="G3:G9" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>2015</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="26" t="s">
         <v>41</v>
       </c>
       <c r="D4" s="9"/>
@@ -1778,14 +1925,14 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>2016</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="26" t="s">
         <v>41</v>
       </c>
       <c r="D5" s="9"/>
@@ -1800,7 +1947,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>2017</v>
       </c>
@@ -1820,6 +1967,72 @@
         <v>0</v>
       </c>
       <c r="G6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>2018</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>2019</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1831,11 +2044,62 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F6">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F6">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="containsText" dxfId="21" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="containsText" dxfId="20" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9">
+    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F9))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1853,50 +2117,50 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3:B5"/>
+      <selection pane="bottomRight" activeCell="B7" activeCellId="1" sqref="B5 B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="34"/>
+      <c r="D1" s="31"/>
       <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
-        <v>10</v>
+      <c r="F1" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="31"/>
-      <c r="B2" s="33"/>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1911,43 +2175,39 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2014</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>42</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="9"/>
       <c r="E3" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F3" s="18">
         <v>0</v>
       </c>
       <c r="G3" s="2" t="str">
-        <f t="shared" ref="G3:G6" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" ref="G3:G9" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>2015</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>42</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="9"/>
       <c r="E4" s="25" t="s">
         <v>31</v>
       </c>
@@ -1959,19 +2219,17 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>2016</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>42</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="9"/>
       <c r="E5" s="25" t="s">
         <v>32</v>
       </c>
@@ -1983,7 +2241,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>2017</v>
       </c>
@@ -2003,6 +2261,72 @@
         <v>0</v>
       </c>
       <c r="G6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>2018</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>2019</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="18">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2014,11 +2338,62 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F6">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F6">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="containsText" dxfId="18" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9">
+    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F9))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2036,50 +2411,50 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3:B5"/>
+      <selection pane="bottomRight" activeCell="G9" sqref="A7:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="29"/>
+      <c r="D1" s="36"/>
       <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21" t="s">
-        <v>11</v>
+      <c r="F1" s="22" t="s">
+        <v>10</v>
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="33"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
@@ -2094,41 +2469,41 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2014</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="36" t="s">
+      <c r="C3" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="27" t="s">
         <v>42</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F3" s="18">
         <v>0</v>
       </c>
       <c r="G3" s="2" t="str">
-        <f t="shared" ref="G3:G6" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" ref="G3:G9" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>2015</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="36" t="s">
+      <c r="C4" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="27" t="s">
         <v>42</v>
       </c>
       <c r="E4" s="25" t="s">
@@ -2142,17 +2517,17 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>2016</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="36" t="s">
+      <c r="C5" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="27" t="s">
         <v>42</v>
       </c>
       <c r="E5" s="25" t="s">
@@ -2166,7 +2541,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>2017</v>
       </c>
@@ -2186,6 +2561,78 @@
         <v>0</v>
       </c>
       <c r="G6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>2018</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>2019</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2197,11 +2644,62 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F6">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F6">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9">
+    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F9))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2219,50 +2717,50 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="29"/>
+      <c r="D1" s="31"/>
       <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
@@ -2277,41 +2775,41 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2014</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="36" t="s">
+      <c r="C3" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="27" t="s">
         <v>42</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F3" s="18">
         <v>0</v>
       </c>
       <c r="G3" s="2" t="str">
-        <f t="shared" ref="G3:G6" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" ref="G3:G9" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>2015</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="36" t="s">
+      <c r="C4" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="27" t="s">
         <v>42</v>
       </c>
       <c r="E4" s="25" t="s">
@@ -2325,17 +2823,17 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>2016</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="36" t="s">
+      <c r="C5" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="27" t="s">
         <v>42</v>
       </c>
       <c r="E5" s="25" t="s">
@@ -2349,7 +2847,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>2017</v>
       </c>
@@ -2369,6 +2867,78 @@
         <v>0</v>
       </c>
       <c r="G6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>2018</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>2019</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2380,11 +2950,62 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F6">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F6">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F9))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2402,50 +3023,50 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3:B5"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="29"/>
+      <c r="D1" s="31"/>
       <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="23" t="s">
-        <v>13</v>
+      <c r="F1" s="21" t="s">
+        <v>12</v>
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
@@ -2460,41 +3081,41 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2014</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="27" t="s">
         <v>42</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F3" s="18">
         <v>0</v>
       </c>
       <c r="G3" s="2" t="str">
-        <f t="shared" ref="G3:G6" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" ref="G3:G9" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>2015</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="27" t="s">
         <v>42</v>
       </c>
       <c r="E4" s="25" t="s">
@@ -2508,23 +3129,23 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>2016</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="18">
+      <c r="E5" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="18" t="s">
         <v>0</v>
       </c>
       <c r="G5" s="2" t="str">
@@ -2532,7 +3153,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>2017</v>
       </c>
@@ -2552,6 +3173,78 @@
         <v>0</v>
       </c>
       <c r="G6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>2018</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>2019</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2563,11 +3256,62 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F6">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F6">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F9))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2585,50 +3329,50 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="G9" sqref="A7:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="29"/>
+      <c r="D1" s="31"/>
       <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
@@ -2643,41 +3387,41 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2014</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="36" t="s">
+      <c r="C3" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="27" t="s">
         <v>42</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F3" s="18">
         <v>0</v>
       </c>
       <c r="G3" s="2" t="str">
-        <f t="shared" ref="G3:G6" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" ref="G3:G9" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>2015</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="36" t="s">
+      <c r="C4" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="27" t="s">
         <v>42</v>
       </c>
       <c r="E4" s="25" t="s">
@@ -2691,23 +3435,23 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>2016</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="36" t="s">
+      <c r="C5" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="18" t="s">
+      <c r="E5" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="18">
         <v>0</v>
       </c>
       <c r="G5" s="2" t="str">
@@ -2715,7 +3459,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>2017</v>
       </c>
@@ -2735,6 +3479,78 @@
         <v>0</v>
       </c>
       <c r="G6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>2018</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>2019</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2746,11 +3562,62 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F6">
+    <cfRule type="containsText" dxfId="29" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F6">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F6">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F9))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2768,8 +3635,314 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="31"/>
+      <c r="E1" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>2014</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="18">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2" t="str">
+        <f t="shared" ref="G3:G9" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>2015</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>2016</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>2017</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>2018</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>2019</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F3:F6">
+    <cfRule type="containsText" dxfId="28" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F6">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F9))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2779,14 +3952,14 @@
       <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" customWidth="1"/>
-    <col min="3" max="3" width="61.81640625" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>14</v>
       </c>
@@ -2797,7 +3970,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -2808,7 +3981,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -2819,7 +3992,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -2830,7 +4003,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -2841,7 +4014,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -2852,7 +4025,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -2865,12 +4038,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B7" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B5" r:id="rId6" display="https://coinsplanet.ru/upload/013/u1372/001/9e08e8ac.jpg"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
+    <hyperlink ref="B7" r:id="rId4" xr:uid="{00000000-0004-0000-0800-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0800-000004000000}"/>
+    <hyperlink ref="B5" r:id="rId6" display="https://coinsplanet.ru/upload/013/u1372/001/9e08e8ac.jpg" xr:uid="{00000000-0004-0000-0800-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>

--- a/Collections/EURO/Latvia/#EURO#Latvia#Regular#[2014-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Latvia/#EURO#Latvia#Regular#[2014-present]#circulation_quality%varieties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CoinCollection\Collections\EURO\Latvia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Latvia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{317CEBFD-01AF-41D5-BD7C-ED0918CC1CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{449C9DF2-D76E-4B43-B7FB-69622E445164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -28,6 +28,15 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -36,6 +45,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Илюшин Алексей</author>
+    <author>Пользователь Windows</author>
   </authors>
   <commentList>
     <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
@@ -58,7 +68,23 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="F2" authorId="1" shapeId="0" xr:uid="{5C536A1C-81A0-43D5-86C1-3F743F44C735}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">Lietuvos monetų kalykla
+(Lithuanian mint (Vilnus)) </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -78,6 +104,22 @@
         </r>
       </text>
     </comment>
+    <comment ref="H2" authorId="1" shapeId="0" xr:uid="{50186A23-94A5-48DA-9999-34257EE59E8D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">Lietuvos monetų kalykla
+(Lithuanian mint (Vilnus)) </t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -86,6 +128,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Илюшин Алексей</author>
+    <author>Пользователь Windows</author>
   </authors>
   <commentList>
     <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
@@ -108,7 +151,23 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="F2" authorId="1" shapeId="0" xr:uid="{E3AD82FD-E6F5-442E-8BD9-A7EC5D7B65DB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">Lietuvos monetų kalykla
+(Lithuanian mint (Vilnus)) </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -128,6 +187,22 @@
         </r>
       </text>
     </comment>
+    <comment ref="H2" authorId="1" shapeId="0" xr:uid="{75FB78D3-F9DD-47E6-9D09-41E08A1C5603}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">Lietuvos monetų kalykla
+(Lithuanian mint (Vilnus)) </t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -136,6 +211,8 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Илюшин Алексей</author>
+    <author>Пользователь Windows</author>
+    <author>Автор</author>
   </authors>
   <commentList>
     <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
@@ -158,7 +235,39 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="F2" authorId="1" shapeId="0" xr:uid="{E1372A7E-C5FC-465C-9CD3-DEA0394FBDD6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">Lietuvos monetų kalykla
+(Lithuanian mint (Vilnus)) </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G2" authorId="2" shapeId="0" xr:uid="{569C771C-3F54-41A9-BBFC-6212D00B3A86}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Suomen Rahapaja
+(Finland (Vantaa) mint)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -178,6 +287,38 @@
         </r>
       </text>
     </comment>
+    <comment ref="I2" authorId="1" shapeId="0" xr:uid="{1766BA43-6E8F-40F7-A397-B50DB8119A9F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">Lietuvos monetų kalykla
+(Lithuanian mint (Vilnus)) </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J2" authorId="2" shapeId="0" xr:uid="{DD48B984-99B1-4F32-82D4-0E94403D7D59}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Suomen Rahapaja
+(Finland (Vantaa) mint)</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -186,6 +327,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Илюшин Алексей</author>
+    <author>Пользователь Windows</author>
   </authors>
   <commentList>
     <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
@@ -208,7 +350,23 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment ref="F2" authorId="1" shapeId="0" xr:uid="{ADCE4044-1B77-4669-B65C-1119A6815CF4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">Lietuvos monetų kalykla
+(Lithuanian mint (Vilnus)) </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -228,6 +386,22 @@
         </r>
       </text>
     </comment>
+    <comment ref="H2" authorId="1" shapeId="0" xr:uid="{2E9A0001-D431-4FC8-9F4A-C2990625CDC2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">Lietuvos monetų kalykla
+(Lithuanian mint (Vilnus)) </t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -236,6 +410,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Илюшин Алексей</author>
+    <author>Пользователь Windows</author>
   </authors>
   <commentList>
     <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
@@ -258,7 +433,23 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
+    <comment ref="F2" authorId="1" shapeId="0" xr:uid="{D0A71BC8-AD85-4E35-9B6B-FC6D79DBC23D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">Lietuvos monetų kalykla
+(Lithuanian mint (Vilnus)) </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -278,6 +469,22 @@
         </r>
       </text>
     </comment>
+    <comment ref="H2" authorId="1" shapeId="0" xr:uid="{F172BCDB-794D-4463-96D1-FC9BB4F7930E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">Lietuvos monetų kalykla
+(Lithuanian mint (Vilnus)) </t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -286,6 +493,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Илюшин Алексей</author>
+    <author>Пользователь Windows</author>
   </authors>
   <commentList>
     <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
@@ -308,7 +516,23 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
+    <comment ref="F2" authorId="1" shapeId="0" xr:uid="{967EE934-CA33-4533-B373-4DAA8A8BADBA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">Lietuvos monetų kalykla
+(Lithuanian mint (Vilnus)) </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -328,6 +552,22 @@
         </r>
       </text>
     </comment>
+    <comment ref="H2" authorId="1" shapeId="0" xr:uid="{86292A65-F548-4FCC-ADFB-FABFE492ADA4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">Lietuvos monetų kalykla
+(Lithuanian mint (Vilnus)) </t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -336,6 +576,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Илюшин Алексей</author>
+    <author>Пользователь Windows</author>
   </authors>
   <commentList>
     <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
@@ -358,7 +599,23 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
+    <comment ref="F2" authorId="1" shapeId="0" xr:uid="{4201AF5C-FDF8-48EB-885D-E065CF747706}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">Lietuvos monetų kalykla
+(Lithuanian mint (Vilnus)) </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
       <text>
         <r>
           <rPr>
@@ -378,6 +635,22 @@
         </r>
       </text>
     </comment>
+    <comment ref="H2" authorId="1" shapeId="0" xr:uid="{4145DED5-52FF-4F0D-81BC-241B9E25992A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">Lietuvos monetų kalykla
+(Lithuanian mint (Vilnus)) </t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -386,6 +659,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Илюшин Алексей</author>
+    <author>Пользователь Windows</author>
   </authors>
   <commentList>
     <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
@@ -408,7 +682,23 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000002000000}">
+    <comment ref="F2" authorId="1" shapeId="0" xr:uid="{56C810F3-E93B-47A3-87C8-F753378C5013}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">Lietuvos monetų kalykla
+(Lithuanian mint (Vilnus)) </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000002000000}">
       <text>
         <r>
           <rPr>
@@ -428,12 +718,28 @@
         </r>
       </text>
     </comment>
+    <comment ref="H2" authorId="1" shapeId="0" xr:uid="{360DE6D8-3142-4D5A-BD43-A75AA88D8AAF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">Lietuvos monetų kalykla
+(Lithuanian mint (Vilnus)) </t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="50">
   <si>
     <t>-</t>
   </si>
@@ -502,9 +808,6 @@
   </si>
   <si>
     <t>Photo of coins</t>
-  </si>
-  <si>
-    <t>2€</t>
   </si>
   <si>
     <t>eurocollection</t>
@@ -578,12 +881,21 @@
   <si>
     <t>15.007.000</t>
   </si>
+  <si>
+    <t>LT</t>
+  </si>
+  <si>
+    <t>FI</t>
+  </si>
+  <si>
+    <t>15.000.000</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -612,13 +924,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFC00000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -639,6 +944,23 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="8">
@@ -685,7 +1007,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -765,19 +1087,6 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
@@ -839,18 +1148,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -861,7 +1185,7 @@
     <xf numFmtId="3" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -883,7 +1207,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -898,22 +1222,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -922,32 +1234,59 @@
     <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -955,7 +1294,799 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="127">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1164,70 +2295,6 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1260,9 +2327,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="26" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="126"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="125" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="124"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1531,247 +2598,558 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G9" sqref="A7:G9"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" customWidth="1"/>
+    <col min="7" max="7" width="3.81640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="3.81640625" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="20" t="s">
+      <c r="D1" s="26"/>
+      <c r="E1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="32"/>
+      <c r="G1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="4" t="s">
+      <c r="H1" s="34"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6">
+        <v>2014</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>2014</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10" t="s">
+      <c r="F3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="17">
+        <v>0</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="36" t="str">
+        <f>IF(OR(AND(G3&gt;1,G3&lt;&gt;"-"),AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="6">
+        <v>2015</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="18">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2" t="str">
-        <f t="shared" ref="G3:G6" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>2015</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="25" t="s">
+      <c r="F4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="36" t="str">
+        <f t="shared" ref="I4:I12" si="0">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-"),AND(H4&gt;1,H4&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
+        <v>2016</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2" t="str">
+      <c r="F5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>2016</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2" t="str">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="6">
+        <v>2017</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>2017</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2" t="str">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="6">
+        <v>2018</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>2018</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2" t="str">
-        <f t="shared" ref="G7:G9" si="1">IF(OR(AND(F7&gt;1,F7&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="6">
         <v>2019</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="B8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="6">
         <v>2020</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2" t="str">
-        <f t="shared" si="1"/>
+      <c r="B9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="36" t="str">
+        <f t="shared" ref="I12" si="1">IF(OR(AND(G12&gt;1,G12&lt;&gt;"-"),AND(H12&gt;1,H12&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3:F6">
-    <cfRule type="containsText" dxfId="35" priority="27" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F6">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="24" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
+  <phoneticPr fontId="7" type="noConversion"/>
+  <conditionalFormatting sqref="G3:G6">
+    <cfRule type="containsText" dxfId="123" priority="47" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G6">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7 G10">
+    <cfRule type="containsText" dxfId="122" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7 G10">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="containsText" dxfId="121" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9 G11">
+    <cfRule type="containsText" dxfId="120" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9 G11">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H6">
+    <cfRule type="containsText" dxfId="119" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H6">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="containsText" dxfId="118" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8 H10">
+    <cfRule type="containsText" dxfId="117" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8 H10">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9 H11">
+    <cfRule type="containsText" dxfId="116" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H9))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9 H11">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H6 H9:H11">
+    <cfRule type="containsText" dxfId="115" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H6 H9:H11">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="containsText" dxfId="114" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="containsText" dxfId="113" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
+    <cfRule type="containsText" dxfId="112" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1783,12 +3161,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8">
-    <cfRule type="containsText" dxfId="23" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8">
+  <conditionalFormatting sqref="H12">
+    <cfRule type="containsText" dxfId="111" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1800,12 +3178,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F9">
-    <cfRule type="containsText" dxfId="22" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F9))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F9">
+  <conditionalFormatting sqref="H12">
+    <cfRule type="containsText" dxfId="110" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1825,230 +3203,541 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7:G9"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" customWidth="1"/>
+    <col min="7" max="7" width="3.81640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="3.81640625" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="20" t="s">
+      <c r="D1" s="26"/>
+      <c r="E1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="32"/>
+      <c r="G1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="4" t="s">
+      <c r="H1" s="34"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="E2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6">
         <v>2014</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="18">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2" t="str">
-        <f t="shared" ref="G3:G9" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="B3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="17">
+        <v>0</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="36" t="str">
+        <f>IF(OR(AND(G3&gt;1,G3&lt;&gt;"-"),AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="6">
         <v>2015</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="25" t="s">
+      <c r="B4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="36" t="str">
+        <f t="shared" ref="I4:I12" si="0">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-"),AND(H4&gt;1,H4&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
+        <v>2016</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2" t="str">
+      <c r="F5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>2016</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2" t="str">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="6">
+        <v>2017</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>2017</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2" t="str">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="6">
+        <v>2018</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>2018</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2" t="str">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="6">
+        <v>2019</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>2019</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2" t="str">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>2020</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2" t="str">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="36" t="str">
+        <f t="shared" ref="I12" si="1">IF(OR(AND(G12&gt;1,G12&lt;&gt;"-"),AND(H12&gt;1,H12&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3:F6">
-    <cfRule type="containsText" dxfId="34" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F6">
+  <phoneticPr fontId="7" type="noConversion"/>
+  <conditionalFormatting sqref="G3:G6">
+    <cfRule type="containsText" dxfId="109" priority="27" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G6">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7 G10:G11">
+    <cfRule type="containsText" dxfId="108" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10:G11 G7">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="containsText" dxfId="107" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="containsText" dxfId="106" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H6">
+    <cfRule type="containsText" dxfId="105" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H6">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="containsText" dxfId="104" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8 H10">
+    <cfRule type="containsText" dxfId="103" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8 H10">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9 H11">
+    <cfRule type="containsText" dxfId="102" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H9))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9 H11">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H6 H9:H11">
+    <cfRule type="containsText" dxfId="101" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H6 H9:H11">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="containsText" dxfId="100" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="containsText" dxfId="99" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2060,12 +3749,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="21" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
+  <conditionalFormatting sqref="G12">
+    <cfRule type="containsText" dxfId="98" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2077,12 +3766,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8">
-    <cfRule type="containsText" dxfId="20" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8">
+  <conditionalFormatting sqref="H12">
+    <cfRule type="containsText" dxfId="97" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2094,12 +3783,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F9">
-    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F9))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F9">
+  <conditionalFormatting sqref="H12">
+    <cfRule type="containsText" dxfId="96" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2119,230 +3808,777 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B7" activeCellId="1" sqref="B5 B7"/>
+      <selection pane="bottomRight" activeCell="K3" sqref="K3:K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="2" customWidth="1"/>
+    <col min="6" max="7" width="12.453125" customWidth="1"/>
+    <col min="8" max="8" width="3.81640625" style="2" customWidth="1"/>
+    <col min="9" max="10" width="3.81640625" customWidth="1"/>
+    <col min="11" max="11" width="13.7265625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="20" t="s">
+      <c r="D1" s="26"/>
+      <c r="E1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="37"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="4" t="s">
+      <c r="I1" s="39"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="E2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6">
         <v>2014</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="18">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2" t="str">
-        <f t="shared" ref="G3:G9" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="B3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="17">
+        <v>0</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="36" t="str">
+        <f t="shared" ref="K3:K12" si="0">IF(OR(AND(H3&gt;1,H3&lt;&gt;"-"),AND(I3&gt;1,I3&lt;&gt;"-"),AND(J3&gt;1,J3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="6">
         <v>2015</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="25" t="s">
+      <c r="B4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
+        <v>2016</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2" t="str">
+      <c r="F5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>2016</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2" t="str">
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="6">
+        <v>2017</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="K6" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>2017</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2" t="str">
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="6">
+        <v>2018</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>2018</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="25" t="s">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="6">
+        <v>2019</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2" t="str">
+      <c r="F8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="17">
+        <v>0</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="K8" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>2019</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="18">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2" t="str">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="K9" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>2020</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2" t="str">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="K10" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="K11" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" s="17">
+        <v>0</v>
+      </c>
+      <c r="K12" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3:F6">
-    <cfRule type="containsText" dxfId="33" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F6">
+  <phoneticPr fontId="8" type="noConversion"/>
+  <conditionalFormatting sqref="H3:H6">
+    <cfRule type="containsText" dxfId="95" priority="51" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H6">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="containsText" dxfId="94" priority="49" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9 H11">
+    <cfRule type="containsText" dxfId="93" priority="45" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H9))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9 H11">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="containsText" dxfId="92" priority="43" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="containsText" dxfId="91" priority="41" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H10))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I6">
+    <cfRule type="containsText" dxfId="90" priority="39" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I6">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7">
+    <cfRule type="containsText" dxfId="89" priority="37" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8 I10">
+    <cfRule type="containsText" dxfId="88" priority="35" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8 I10">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9 I11">
+    <cfRule type="containsText" dxfId="87" priority="33" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I9))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9 I11">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I6 I9:I11">
+    <cfRule type="containsText" dxfId="86" priority="31" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I6 I9:I11">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8">
+    <cfRule type="containsText" dxfId="85" priority="29" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7">
+    <cfRule type="containsText" dxfId="84" priority="27" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="containsText" dxfId="83" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12">
+    <cfRule type="containsText" dxfId="82" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12">
+    <cfRule type="containsText" dxfId="81" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J6">
+    <cfRule type="containsText" dxfId="9" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J6">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7">
+    <cfRule type="containsText" dxfId="8" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8 J10">
+    <cfRule type="containsText" dxfId="7" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8 J10">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9 J11">
+    <cfRule type="containsText" dxfId="6" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J9))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9 J11">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J6 J9:J11">
+    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J6 J9:J11">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8">
+    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2354,12 +4590,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="18" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
+  <conditionalFormatting sqref="J7">
+    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2371,29 +4607,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F9">
-    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F9))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F9">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8">
-    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8">
+  <conditionalFormatting sqref="J12">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2413,242 +4632,557 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G9" sqref="A7:G9"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" customWidth="1"/>
+    <col min="7" max="7" width="3.81640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="3.81640625" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="20" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="32"/>
+      <c r="G1" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="4" t="s">
+      <c r="H1" s="34"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="28"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="E2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6">
         <v>2014</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="26" t="s">
+      <c r="B3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="18">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2" t="str">
-        <f t="shared" ref="G3:G9" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="E3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="17">
+        <v>0</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="36" t="str">
+        <f>IF(OR(AND(G3&gt;1,G3&lt;&gt;"-"),AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="6">
         <v>2015</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="26" t="s">
+      <c r="B4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="36" t="str">
+        <f t="shared" ref="I4:I12" si="0">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-"),AND(H4&gt;1,H4&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
+        <v>2016</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2" t="str">
+      <c r="F5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>2016</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="26" t="s">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="6">
+        <v>2017</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="6">
+        <v>2018</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2" t="str">
+      <c r="E7" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>2017</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2" t="str">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="6">
+        <v>2019</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>2018</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="26" t="s">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2" t="str">
+      <c r="E9" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>2019</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="26" t="s">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2" t="str">
+      <c r="E10" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>2020</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="26" t="s">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2" t="str">
+      <c r="E11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="36" t="str">
+        <f t="shared" ref="I12" si="1">IF(OR(AND(G12&gt;1,G12&lt;&gt;"-"),AND(H12&gt;1,H12&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3:F6">
-    <cfRule type="containsText" dxfId="32" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F6">
+  <phoneticPr fontId="7" type="noConversion"/>
+  <conditionalFormatting sqref="G3:G6">
+    <cfRule type="containsText" dxfId="80" priority="27" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G6">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7 G10:G11">
+    <cfRule type="containsText" dxfId="79" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10:G11 G7">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="containsText" dxfId="78" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="containsText" dxfId="77" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H6">
+    <cfRule type="containsText" dxfId="76" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H6">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="containsText" dxfId="75" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8 H10">
+    <cfRule type="containsText" dxfId="74" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8 H10">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9 H11">
+    <cfRule type="containsText" dxfId="73" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H9))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9 H11">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H6 H9:H11">
+    <cfRule type="containsText" dxfId="72" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H6 H9:H11">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="containsText" dxfId="71" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="containsText" dxfId="70" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2660,12 +5194,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
+  <conditionalFormatting sqref="G12">
+    <cfRule type="containsText" dxfId="69" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2677,12 +5211,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8">
-    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8">
+  <conditionalFormatting sqref="H12">
+    <cfRule type="containsText" dxfId="68" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2694,12 +5228,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F9">
-    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F9))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F9">
+  <conditionalFormatting sqref="H12">
+    <cfRule type="containsText" dxfId="67" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2719,242 +5253,557 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7:G9"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" customWidth="1"/>
+    <col min="7" max="7" width="3.81640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="3.81640625" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="20" t="s">
+      <c r="D1" s="26"/>
+      <c r="E1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="32"/>
+      <c r="G1" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="4" t="s">
+      <c r="H1" s="34"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="E2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6">
         <v>2014</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="26" t="s">
+      <c r="B3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="18">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2" t="str">
-        <f t="shared" ref="G3:G9" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="E3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="17">
+        <v>0</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="36" t="str">
+        <f>IF(OR(AND(G3&gt;1,G3&lt;&gt;"-"),AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="6">
         <v>2015</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="26" t="s">
+      <c r="B4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="36" t="str">
+        <f t="shared" ref="I4:I12" si="0">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-"),AND(H4&gt;1,H4&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
+        <v>2016</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2" t="str">
+      <c r="F5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>2016</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="26" t="s">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="6">
+        <v>2017</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="6">
+        <v>2018</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2" t="str">
+      <c r="E7" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>2017</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2" t="str">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="6">
+        <v>2019</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>2018</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="26" t="s">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2" t="str">
+      <c r="E9" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>2019</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="26" t="s">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2" t="str">
+      <c r="E10" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>2020</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="26" t="s">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2" t="str">
+      <c r="E11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="36" t="str">
+        <f t="shared" ref="I12" si="1">IF(OR(AND(G12&gt;1,G12&lt;&gt;"-"),AND(H12&gt;1,H12&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3:F6">
-    <cfRule type="containsText" dxfId="31" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F6">
+  <phoneticPr fontId="7" type="noConversion"/>
+  <conditionalFormatting sqref="G3:G6">
+    <cfRule type="containsText" dxfId="66" priority="27" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G6">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7 G10:G11">
+    <cfRule type="containsText" dxfId="65" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10:G11 G7">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="containsText" dxfId="64" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="containsText" dxfId="63" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H6">
+    <cfRule type="containsText" dxfId="62" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H6">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="containsText" dxfId="61" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8 H10">
+    <cfRule type="containsText" dxfId="60" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8 H10">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9 H11">
+    <cfRule type="containsText" dxfId="59" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H9))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9 H11">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H6 H9:H11">
+    <cfRule type="containsText" dxfId="58" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H6 H9:H11">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="containsText" dxfId="57" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="containsText" dxfId="56" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2966,12 +5815,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
+  <conditionalFormatting sqref="G12">
+    <cfRule type="containsText" dxfId="55" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2983,12 +5832,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8">
-    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8">
+  <conditionalFormatting sqref="H12">
+    <cfRule type="containsText" dxfId="54" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3000,12 +5849,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F9">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F9))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F9">
+  <conditionalFormatting sqref="H12">
+    <cfRule type="containsText" dxfId="53" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3025,242 +5874,557 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7:G9"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" customWidth="1"/>
+    <col min="7" max="7" width="3.81640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="3.81640625" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="20" t="s">
+      <c r="D1" s="26"/>
+      <c r="E1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="32"/>
+      <c r="G1" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="4" t="s">
+      <c r="H1" s="34"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="E2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6">
         <v>2014</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="26" t="s">
+      <c r="B3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="18">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2" t="str">
-        <f t="shared" ref="G3:G9" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="E3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="17">
+        <v>0</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="36" t="str">
+        <f>IF(OR(AND(G3&gt;1,G3&lt;&gt;"-"),AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="6">
         <v>2015</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="26" t="s">
+      <c r="B4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="36" t="str">
+        <f t="shared" ref="I4:I12" si="0">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-"),AND(H4&gt;1,H4&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
+        <v>2016</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2" t="str">
+      <c r="F5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>2016</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="26" t="s">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="6">
+        <v>2017</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="6">
+        <v>2018</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2" t="str">
+      <c r="E7" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>2017</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2" t="str">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="6">
+        <v>2019</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>2018</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="26" t="s">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2" t="str">
+      <c r="E9" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>2019</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="26" t="s">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2" t="str">
+      <c r="E10" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>2020</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="26" t="s">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2" t="str">
+      <c r="E11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="36" t="str">
+        <f t="shared" ref="I12" si="1">IF(OR(AND(G12&gt;1,G12&lt;&gt;"-"),AND(H12&gt;1,H12&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3:F6">
-    <cfRule type="containsText" dxfId="30" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F6">
+  <phoneticPr fontId="7" type="noConversion"/>
+  <conditionalFormatting sqref="G3:G6">
+    <cfRule type="containsText" dxfId="52" priority="27" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G6">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7 G10:G11">
+    <cfRule type="containsText" dxfId="51" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10:G11 G7">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="containsText" dxfId="50" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="containsText" dxfId="49" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H6">
+    <cfRule type="containsText" dxfId="48" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H6">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="containsText" dxfId="47" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8 H10">
+    <cfRule type="containsText" dxfId="46" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8 H10">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9 H11">
+    <cfRule type="containsText" dxfId="45" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H9))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9 H11">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H6 H9:H11">
+    <cfRule type="containsText" dxfId="44" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H6 H9:H11">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="containsText" dxfId="43" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="containsText" dxfId="42" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3272,12 +6436,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
+  <conditionalFormatting sqref="G12">
+    <cfRule type="containsText" dxfId="41" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3289,12 +6453,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8">
-    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8">
+  <conditionalFormatting sqref="H12">
+    <cfRule type="containsText" dxfId="40" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3306,12 +6470,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F9">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F9))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F9">
+  <conditionalFormatting sqref="H12">
+    <cfRule type="containsText" dxfId="39" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3331,242 +6495,557 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G9" sqref="A7:G9"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" customWidth="1"/>
+    <col min="7" max="7" width="3.81640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="3.81640625" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="20" t="s">
+      <c r="D1" s="26"/>
+      <c r="E1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="32"/>
+      <c r="G1" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="4" t="s">
+      <c r="H1" s="34"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="E2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6">
         <v>2014</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="17">
+        <v>0</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="36" t="str">
+        <f>IF(OR(AND(G3&gt;1,G3&lt;&gt;"-"),AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="6">
+        <v>2015</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="36" t="str">
+        <f t="shared" ref="I4:I12" si="0">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-"),AND(H4&gt;1,H4&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
+        <v>2016</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="17">
+        <v>0</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="6">
+        <v>2017</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="6">
+        <v>2018</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="F7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="6">
+        <v>2019</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="18">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2" t="str">
-        <f t="shared" ref="G3:G9" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>2015</v>
-      </c>
-      <c r="B4" s="8" t="s">
+      <c r="E8" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="F8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2" t="str">
+      <c r="E9" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>2016</v>
-      </c>
-      <c r="B5" s="8" t="s">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="F10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="18">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2" t="str">
+      <c r="E11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>2017</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>2018</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>2019</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>2020</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2" t="str">
-        <f t="shared" si="0"/>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="36" t="str">
+        <f t="shared" ref="I12" si="1">IF(OR(AND(G12&gt;1,G12&lt;&gt;"-"),AND(H12&gt;1,H12&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3:F6">
-    <cfRule type="containsText" dxfId="29" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F6">
+  <phoneticPr fontId="7" type="noConversion"/>
+  <conditionalFormatting sqref="G3:G6">
+    <cfRule type="containsText" dxfId="38" priority="27" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G6">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7 G10:G11">
+    <cfRule type="containsText" dxfId="37" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10:G11 G7">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="containsText" dxfId="36" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="containsText" dxfId="35" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H6">
+    <cfRule type="containsText" dxfId="34" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H6">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="containsText" dxfId="33" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8 H10">
+    <cfRule type="containsText" dxfId="32" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8 H10">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9 H11">
+    <cfRule type="containsText" dxfId="31" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H9))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9 H11">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H6 H9:H11">
+    <cfRule type="containsText" dxfId="30" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H6 H9:H11">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="containsText" dxfId="29" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="containsText" dxfId="28" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3578,12 +7057,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
+  <conditionalFormatting sqref="G12">
+    <cfRule type="containsText" dxfId="27" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3595,12 +7074,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8">
+  <conditionalFormatting sqref="H12">
+    <cfRule type="containsText" dxfId="26" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3612,12 +7091,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F9">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F9))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F9">
+  <conditionalFormatting sqref="H12">
+    <cfRule type="containsText" dxfId="25" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3637,242 +7116,472 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" customWidth="1"/>
+    <col min="7" max="7" width="3.81640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="3.81640625" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="20" t="s">
+      <c r="D1" s="26"/>
+      <c r="E1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="4" t="s">
+      <c r="F1" s="26"/>
+      <c r="G1" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="26"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="E2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6">
         <v>2014</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="17">
+        <v>0</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="36" t="str">
+        <f>IF(OR(AND(G3&gt;1,G3&lt;&gt;"-"),AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="6">
+        <v>2015</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="36" t="str">
+        <f t="shared" ref="I4:I12" si="0">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-"),AND(H4&gt;1,H4&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
+        <v>2016</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="6">
+        <v>2017</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="6">
+        <v>2018</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="F7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="6">
+        <v>2019</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="10" t="s">
+      <c r="E8" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="18">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2" t="str">
-        <f t="shared" ref="G3:G9" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>2015</v>
-      </c>
-      <c r="B4" s="8" t="s">
+      <c r="D9" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="F9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2" t="str">
+      <c r="E10" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>2016</v>
-      </c>
-      <c r="B5" s="8" t="s">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2" t="str">
+      <c r="G11" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>2017</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2" t="str">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>2018</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>2019</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>2020</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3:F6">
-    <cfRule type="containsText" dxfId="28" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F6">
+  <phoneticPr fontId="7" type="noConversion"/>
+  <conditionalFormatting sqref="G3:H6">
+    <cfRule type="containsText" dxfId="24" priority="29" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:H6">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7:H7">
+    <cfRule type="containsText" dxfId="23" priority="27" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7:H7">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8:H8 G10:H10">
+    <cfRule type="containsText" dxfId="22" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8:H8 G10:H10">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9:H9 G11:H11">
+    <cfRule type="containsText" dxfId="21" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9:H9 G11:H11">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H6 H9:H11">
+    <cfRule type="containsText" dxfId="20" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H6 H9:H11">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3884,12 +7593,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
+  <conditionalFormatting sqref="H7">
+    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3901,12 +7610,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8">
+  <conditionalFormatting sqref="G12:H12">
+    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12:H12">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3918,12 +7627,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F9">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F9))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F9">
+  <conditionalFormatting sqref="H12">
+    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3952,88 +7661,88 @@
       <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="61.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="13">
+        <v>4</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="13">
+        <v>5</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
-        <v>4</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
-        <v>5</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="19" t="s">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="13">
+        <v>6</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
-        <v>6</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Collections/EURO/Latvia/#EURO#Latvia#Regular#[2014-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Latvia/#EURO#Latvia#Regular#[2014-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Latvia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{449C9DF2-D76E-4B43-B7FB-69622E445164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE89CD6-9525-4DA2-AE02-473D0635AD69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5050" yWindow="3660" windowWidth="28800" windowHeight="17160" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -747,9 +747,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Series</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -890,6 +887,9 @@
   <si>
     <t>15.000.000</t>
   </si>
+  <si>
+    <t>Subject</t>
+  </si>
 </sst>
 </file>
 
@@ -1007,7 +1007,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1090,30 +1090,6 @@
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top/>
@@ -1172,7 +1148,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1222,7 +1198,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1232,6 +1208,9 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1246,11 +1225,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1261,1032 +1258,13 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="127">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="119">
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2295,6 +1273,934 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2327,9 +2233,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="126"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="125" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="124"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -2604,7 +2510,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2621,46 +2527,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="35" t="s">
+      <c r="F1" s="29"/>
+      <c r="G1" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="34"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I2" s="1"/>
     </row>
@@ -2669,14 +2575,14 @@
         <v>2014</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>0</v>
@@ -2687,7 +2593,7 @@
       <c r="H3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="36" t="str">
+      <c r="I3" s="23" t="str">
         <f>IF(OR(AND(G3&gt;1,G3&lt;&gt;"-"),AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
@@ -2697,14 +2603,14 @@
         <v>2015</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>0</v>
@@ -2715,8 +2621,8 @@
       <c r="H4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="36" t="str">
-        <f t="shared" ref="I4:I12" si="0">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-"),AND(H4&gt;1,H4&lt;&gt;"-")),"Can exchange","")</f>
+      <c r="I4" s="23" t="str">
+        <f t="shared" ref="I4:I11" si="0">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-"),AND(H4&gt;1,H4&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -2725,14 +2631,14 @@
         <v>2016</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>0</v>
@@ -2743,7 +2649,7 @@
       <c r="H5" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="36" t="str">
+      <c r="I5" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2773,7 +2679,7 @@
       <c r="H6" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="36" t="str">
+      <c r="I6" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2783,14 +2689,14 @@
         <v>2018</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>0</v>
@@ -2801,7 +2707,7 @@
       <c r="H7" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="36" t="str">
+      <c r="I7" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2811,14 +2717,14 @@
         <v>2019</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>0</v>
@@ -2829,7 +2735,7 @@
       <c r="H8" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I8" s="36" t="str">
+      <c r="I8" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2839,14 +2745,14 @@
         <v>2020</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>0</v>
@@ -2857,7 +2763,7 @@
       <c r="H9" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I9" s="36" t="str">
+      <c r="I9" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2867,14 +2773,14 @@
         <v>2021</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>0</v>
@@ -2885,7 +2791,7 @@
       <c r="H10" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I10" s="36" t="str">
+      <c r="I10" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2895,17 +2801,17 @@
         <v>2022</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="4" t="s">
         <v>0</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G11" s="17" t="s">
         <v>0</v>
@@ -2913,7 +2819,7 @@
       <c r="H11" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I11" s="36" t="str">
+      <c r="I11" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2943,7 +2849,7 @@
       <c r="H12" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I12" s="36" t="str">
+      <c r="I12" s="23" t="str">
         <f t="shared" ref="I12" si="1">IF(OR(AND(G12&gt;1,G12&lt;&gt;"-"),AND(H12&gt;1,H12&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
@@ -2958,7 +2864,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G3:G6">
-    <cfRule type="containsText" dxfId="123" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="118" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2975,11 +2881,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7 G10">
-    <cfRule type="containsText" dxfId="122" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="117" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G7))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7 G10">
+  <conditionalFormatting sqref="G10 G7">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2992,7 +2898,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="containsText" dxfId="121" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="116" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3009,11 +2915,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9 G11">
-    <cfRule type="containsText" dxfId="120" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="115" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G9 G11">
+  <conditionalFormatting sqref="G11 G9">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3026,7 +2932,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H6">
-    <cfRule type="containsText" dxfId="119" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="114" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3043,7 +2949,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="containsText" dxfId="118" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="113" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3060,11 +2966,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8 H10">
-    <cfRule type="containsText" dxfId="117" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="112" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H8))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8 H10">
+  <conditionalFormatting sqref="H10 H8">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3077,11 +2983,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9 H11">
-    <cfRule type="containsText" dxfId="116" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="111" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H9))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H9 H11">
+  <conditionalFormatting sqref="H11 H9">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3094,7 +3000,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H6 H9:H11">
-    <cfRule type="containsText" dxfId="115" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="110" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3111,7 +3017,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="containsText" dxfId="114" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="109" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3128,7 +3034,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="containsText" dxfId="113" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="108" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3145,7 +3051,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="containsText" dxfId="112" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="107" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3162,7 +3068,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="containsText" dxfId="111" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="106" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3179,7 +3085,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="containsText" dxfId="110" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="105" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3209,7 +3115,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3226,46 +3132,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="35" t="s">
+      <c r="F1" s="29"/>
+      <c r="G1" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="34"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I2" s="1"/>
     </row>
@@ -3274,14 +3180,14 @@
         <v>2014</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>0</v>
@@ -3292,7 +3198,7 @@
       <c r="H3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="36" t="str">
+      <c r="I3" s="23" t="str">
         <f>IF(OR(AND(G3&gt;1,G3&lt;&gt;"-"),AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
@@ -3302,14 +3208,14 @@
         <v>2015</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>0</v>
@@ -3320,8 +3226,8 @@
       <c r="H4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="36" t="str">
-        <f t="shared" ref="I4:I12" si="0">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-"),AND(H4&gt;1,H4&lt;&gt;"-")),"Can exchange","")</f>
+      <c r="I4" s="23" t="str">
+        <f t="shared" ref="I4:I11" si="0">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-"),AND(H4&gt;1,H4&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -3330,14 +3236,14 @@
         <v>2016</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>0</v>
@@ -3348,7 +3254,7 @@
       <c r="H5" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="36" t="str">
+      <c r="I5" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3378,7 +3284,7 @@
       <c r="H6" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="36" t="str">
+      <c r="I6" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3388,14 +3294,14 @@
         <v>2018</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>0</v>
@@ -3406,7 +3312,7 @@
       <c r="H7" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="36" t="str">
+      <c r="I7" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3416,14 +3322,14 @@
         <v>2019</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>0</v>
@@ -3434,7 +3340,7 @@
       <c r="H8" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I8" s="36" t="str">
+      <c r="I8" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3444,14 +3350,14 @@
         <v>2020</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>0</v>
@@ -3462,7 +3368,7 @@
       <c r="H9" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I9" s="36" t="str">
+      <c r="I9" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3472,14 +3378,14 @@
         <v>2021</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>0</v>
@@ -3490,7 +3396,7 @@
       <c r="H10" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I10" s="36" t="str">
+      <c r="I10" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3500,17 +3406,17 @@
         <v>2022</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="4" t="s">
         <v>0</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G11" s="17" t="s">
         <v>0</v>
@@ -3518,7 +3424,7 @@
       <c r="H11" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I11" s="36" t="str">
+      <c r="I11" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3548,7 +3454,7 @@
       <c r="H12" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I12" s="36" t="str">
+      <c r="I12" s="23" t="str">
         <f t="shared" ref="I12" si="1">IF(OR(AND(G12&gt;1,G12&lt;&gt;"-"),AND(H12&gt;1,H12&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
@@ -3563,7 +3469,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G3:G6">
-    <cfRule type="containsText" dxfId="109" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="104" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3580,7 +3486,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7 G10:G11">
-    <cfRule type="containsText" dxfId="108" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="103" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3597,7 +3503,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="containsText" dxfId="107" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="102" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3614,7 +3520,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="containsText" dxfId="106" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="101" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3631,7 +3537,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H6">
-    <cfRule type="containsText" dxfId="105" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="100" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3648,7 +3554,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="containsText" dxfId="104" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="99" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3665,11 +3571,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8 H10">
-    <cfRule type="containsText" dxfId="103" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="98" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H8))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8 H10">
+  <conditionalFormatting sqref="H10 H8">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3682,11 +3588,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9 H11">
-    <cfRule type="containsText" dxfId="102" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="97" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H9))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H9 H11">
+  <conditionalFormatting sqref="H11 H9">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3699,7 +3605,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H6 H9:H11">
-    <cfRule type="containsText" dxfId="101" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="96" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3716,7 +3622,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="containsText" dxfId="100" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="95" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3733,7 +3639,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="containsText" dxfId="99" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="94" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3750,7 +3656,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="containsText" dxfId="98" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="93" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3767,7 +3673,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="containsText" dxfId="97" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="92" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3784,7 +3690,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="containsText" dxfId="96" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="91" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3810,11 +3716,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K3" sqref="K3:K12"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3831,54 +3737,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="35" t="s">
+      <c r="F1" s="32"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="34"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="37"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="39"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>48</v>
-      </c>
       <c r="H2" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I2" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="16" t="s">
         <v>47</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>48</v>
       </c>
       <c r="K2" s="1"/>
     </row>
@@ -3887,14 +3793,14 @@
         <v>2014</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>0</v>
@@ -3911,7 +3817,7 @@
       <c r="J3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="36" t="str">
+      <c r="K3" s="23" t="str">
         <f t="shared" ref="K3:K12" si="0">IF(OR(AND(H3&gt;1,H3&lt;&gt;"-"),AND(I3&gt;1,I3&lt;&gt;"-"),AND(J3&gt;1,J3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
@@ -3921,14 +3827,14 @@
         <v>2015</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>0</v>
@@ -3945,7 +3851,7 @@
       <c r="J4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="K4" s="36" t="str">
+      <c r="K4" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3955,14 +3861,14 @@
         <v>2016</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>0</v>
@@ -3979,7 +3885,7 @@
       <c r="J5" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="K5" s="36" t="str">
+      <c r="K5" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4015,7 +3921,7 @@
       <c r="J6" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="K6" s="36" t="str">
+      <c r="K6" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4025,14 +3931,14 @@
         <v>2018</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>0</v>
@@ -4049,7 +3955,7 @@
       <c r="J7" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="K7" s="36" t="str">
+      <c r="K7" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4059,14 +3965,14 @@
         <v>2019</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>0</v>
@@ -4083,7 +3989,7 @@
       <c r="J8" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="K8" s="36" t="str">
+      <c r="K8" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4093,14 +3999,14 @@
         <v>2020</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>0</v>
@@ -4117,7 +4023,7 @@
       <c r="J9" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="K9" s="36" t="str">
+      <c r="K9" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4127,14 +4033,14 @@
         <v>2021</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>0</v>
@@ -4151,7 +4057,7 @@
       <c r="J10" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="K10" s="36" t="str">
+      <c r="K10" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4161,17 +4067,17 @@
         <v>2022</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="4" t="s">
         <v>0</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>0</v>
@@ -4185,7 +4091,7 @@
       <c r="J11" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="K11" s="36" t="str">
+      <c r="K11" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4195,10 +4101,10 @@
         <v>2023</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="4" t="s">
@@ -4208,7 +4114,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H12" s="17" t="s">
         <v>0</v>
@@ -4219,7 +4125,7 @@
       <c r="J12" s="17">
         <v>0</v>
       </c>
-      <c r="K12" s="36" t="str">
+      <c r="K12" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4234,7 +4140,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="H3:H6">
-    <cfRule type="containsText" dxfId="95" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="90" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4251,7 +4157,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="containsText" dxfId="94" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="89" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4268,11 +4174,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9 H11">
-    <cfRule type="containsText" dxfId="93" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="88" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H9))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H9 H11">
+  <conditionalFormatting sqref="H11 H9">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4285,7 +4191,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="containsText" dxfId="92" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="87" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4302,7 +4208,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="containsText" dxfId="91" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="86" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4319,7 +4225,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I6">
-    <cfRule type="containsText" dxfId="90" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="85" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4336,7 +4242,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="containsText" dxfId="89" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="84" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4353,11 +4259,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8 I10">
-    <cfRule type="containsText" dxfId="88" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="83" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I8))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8 I10">
+  <conditionalFormatting sqref="I10 I8">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4370,11 +4276,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9 I11">
-    <cfRule type="containsText" dxfId="87" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="82" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I9))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I9 I11">
+  <conditionalFormatting sqref="I11 I9">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4387,7 +4293,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I6 I9:I11">
-    <cfRule type="containsText" dxfId="86" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="81" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4404,7 +4310,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="containsText" dxfId="85" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="80" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4421,7 +4327,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="containsText" dxfId="84" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="79" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4438,7 +4344,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="containsText" dxfId="83" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="78" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4455,7 +4361,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="containsText" dxfId="82" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="77" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4472,7 +4378,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="containsText" dxfId="81" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="76" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4489,7 +4395,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J6">
-    <cfRule type="containsText" dxfId="9" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="75" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4506,7 +4412,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="containsText" dxfId="8" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="74" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4523,11 +4429,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8 J10">
-    <cfRule type="containsText" dxfId="7" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="73" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J8))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J8 J10">
+  <conditionalFormatting sqref="J10 J8">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4540,11 +4446,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9 J11">
-    <cfRule type="containsText" dxfId="6" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="72" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J9))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J9 J11">
+  <conditionalFormatting sqref="J11 J9">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4557,7 +4463,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J6 J9:J11">
-    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="71" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4574,7 +4480,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="70" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4591,7 +4497,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="69" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4608,7 +4514,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="68" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4638,7 +4544,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4655,46 +4561,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="D1" s="38"/>
+      <c r="E1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="35" t="s">
+      <c r="F1" s="29"/>
+      <c r="G1" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="37"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="34"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I2" s="1"/>
     </row>
@@ -4703,16 +4609,16 @@
         <v>2014</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="22" t="s">
-        <v>41</v>
-      </c>
       <c r="E3" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>0</v>
@@ -4723,7 +4629,7 @@
       <c r="H3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="36" t="str">
+      <c r="I3" s="23" t="str">
         <f>IF(OR(AND(G3&gt;1,G3&lt;&gt;"-"),AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
@@ -4733,16 +4639,16 @@
         <v>2015</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="22" t="s">
-        <v>41</v>
-      </c>
       <c r="E4" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>0</v>
@@ -4753,8 +4659,8 @@
       <c r="H4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="36" t="str">
-        <f t="shared" ref="I4:I12" si="0">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-"),AND(H4&gt;1,H4&lt;&gt;"-")),"Can exchange","")</f>
+      <c r="I4" s="23" t="str">
+        <f t="shared" ref="I4:I11" si="0">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-"),AND(H4&gt;1,H4&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -4763,16 +4669,16 @@
         <v>2016</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="22" t="s">
-        <v>41</v>
-      </c>
       <c r="E5" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>0</v>
@@ -4783,7 +4689,7 @@
       <c r="H5" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="36" t="str">
+      <c r="I5" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4813,7 +4719,7 @@
       <c r="H6" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="36" t="str">
+      <c r="I6" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4823,16 +4729,16 @@
         <v>2018</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="22" t="s">
-        <v>41</v>
-      </c>
       <c r="E7" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>0</v>
@@ -4843,7 +4749,7 @@
       <c r="H7" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="36" t="str">
+      <c r="I7" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4853,16 +4759,16 @@
         <v>2019</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="22" t="s">
-        <v>41</v>
-      </c>
       <c r="E8" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>0</v>
@@ -4873,7 +4779,7 @@
       <c r="H8" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I8" s="36" t="str">
+      <c r="I8" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4883,16 +4789,16 @@
         <v>2020</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="22" t="s">
-        <v>41</v>
-      </c>
       <c r="E9" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>0</v>
@@ -4903,7 +4809,7 @@
       <c r="H9" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I9" s="36" t="str">
+      <c r="I9" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4913,16 +4819,16 @@
         <v>2021</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="22" t="s">
-        <v>41</v>
-      </c>
       <c r="E10" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>0</v>
@@ -4933,7 +4839,7 @@
       <c r="H10" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I10" s="36" t="str">
+      <c r="I10" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4943,19 +4849,19 @@
         <v>2022</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="22" t="s">
-        <v>41</v>
-      </c>
       <c r="E11" s="4" t="s">
         <v>0</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G11" s="17" t="s">
         <v>0</v>
@@ -4963,7 +4869,7 @@
       <c r="H11" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I11" s="36" t="str">
+      <c r="I11" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4993,7 +4899,7 @@
       <c r="H12" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I12" s="36" t="str">
+      <c r="I12" s="23" t="str">
         <f t="shared" ref="I12" si="1">IF(OR(AND(G12&gt;1,G12&lt;&gt;"-"),AND(H12&gt;1,H12&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
@@ -5008,7 +4914,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G3:G6">
-    <cfRule type="containsText" dxfId="80" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="67" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5025,7 +4931,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7 G10:G11">
-    <cfRule type="containsText" dxfId="79" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="66" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5042,7 +4948,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="containsText" dxfId="78" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="65" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5059,7 +4965,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="containsText" dxfId="77" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="64" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5076,7 +4982,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H6">
-    <cfRule type="containsText" dxfId="76" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="63" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5093,7 +4999,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="containsText" dxfId="75" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="62" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5110,11 +5016,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8 H10">
-    <cfRule type="containsText" dxfId="74" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="61" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H8))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8 H10">
+  <conditionalFormatting sqref="H10 H8">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5127,11 +5033,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9 H11">
-    <cfRule type="containsText" dxfId="73" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="60" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H9))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H9 H11">
+  <conditionalFormatting sqref="H11 H9">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5144,7 +5050,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H6 H9:H11">
-    <cfRule type="containsText" dxfId="72" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="59" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5161,7 +5067,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="containsText" dxfId="71" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="58" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5178,7 +5084,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="containsText" dxfId="70" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="57" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5195,7 +5101,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="containsText" dxfId="69" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="56" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5212,7 +5118,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="containsText" dxfId="68" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="55" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5229,7 +5135,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="containsText" dxfId="67" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="54" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5259,7 +5165,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5276,46 +5182,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="35" t="s">
+      <c r="F1" s="29"/>
+      <c r="G1" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="34"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I2" s="1"/>
     </row>
@@ -5324,16 +5230,16 @@
         <v>2014</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="22" t="s">
-        <v>41</v>
-      </c>
       <c r="E3" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>0</v>
@@ -5344,7 +5250,7 @@
       <c r="H3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="36" t="str">
+      <c r="I3" s="23" t="str">
         <f>IF(OR(AND(G3&gt;1,G3&lt;&gt;"-"),AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
@@ -5354,16 +5260,16 @@
         <v>2015</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="22" t="s">
-        <v>41</v>
-      </c>
       <c r="E4" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>0</v>
@@ -5374,8 +5280,8 @@
       <c r="H4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="36" t="str">
-        <f t="shared" ref="I4:I12" si="0">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-"),AND(H4&gt;1,H4&lt;&gt;"-")),"Can exchange","")</f>
+      <c r="I4" s="23" t="str">
+        <f t="shared" ref="I4:I11" si="0">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-"),AND(H4&gt;1,H4&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -5384,16 +5290,16 @@
         <v>2016</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="22" t="s">
-        <v>41</v>
-      </c>
       <c r="E5" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>0</v>
@@ -5404,7 +5310,7 @@
       <c r="H5" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="36" t="str">
+      <c r="I5" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5434,7 +5340,7 @@
       <c r="H6" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="36" t="str">
+      <c r="I6" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5444,16 +5350,16 @@
         <v>2018</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="22" t="s">
-        <v>41</v>
-      </c>
       <c r="E7" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>0</v>
@@ -5464,7 +5370,7 @@
       <c r="H7" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="36" t="str">
+      <c r="I7" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5474,16 +5380,16 @@
         <v>2019</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="22" t="s">
-        <v>41</v>
-      </c>
       <c r="E8" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>0</v>
@@ -5494,7 +5400,7 @@
       <c r="H8" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I8" s="36" t="str">
+      <c r="I8" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5504,16 +5410,16 @@
         <v>2020</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="22" t="s">
-        <v>41</v>
-      </c>
       <c r="E9" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>0</v>
@@ -5524,7 +5430,7 @@
       <c r="H9" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I9" s="36" t="str">
+      <c r="I9" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5534,16 +5440,16 @@
         <v>2021</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="22" t="s">
-        <v>41</v>
-      </c>
       <c r="E10" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>0</v>
@@ -5554,7 +5460,7 @@
       <c r="H10" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I10" s="36" t="str">
+      <c r="I10" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5564,19 +5470,19 @@
         <v>2022</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="22" t="s">
-        <v>41</v>
-      </c>
       <c r="E11" s="4" t="s">
         <v>0</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G11" s="17" t="s">
         <v>0</v>
@@ -5584,7 +5490,7 @@
       <c r="H11" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I11" s="36" t="str">
+      <c r="I11" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5614,7 +5520,7 @@
       <c r="H12" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I12" s="36" t="str">
+      <c r="I12" s="23" t="str">
         <f t="shared" ref="I12" si="1">IF(OR(AND(G12&gt;1,G12&lt;&gt;"-"),AND(H12&gt;1,H12&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
@@ -5629,7 +5535,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G3:G6">
-    <cfRule type="containsText" dxfId="66" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="53" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5646,7 +5552,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7 G10:G11">
-    <cfRule type="containsText" dxfId="65" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="52" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5663,7 +5569,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="containsText" dxfId="64" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="51" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5680,7 +5586,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="containsText" dxfId="63" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="50" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5697,7 +5603,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H6">
-    <cfRule type="containsText" dxfId="62" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="49" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5714,7 +5620,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="containsText" dxfId="61" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="48" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5731,11 +5637,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8 H10">
-    <cfRule type="containsText" dxfId="60" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="47" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H8))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8 H10">
+  <conditionalFormatting sqref="H10 H8">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5748,11 +5654,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9 H11">
-    <cfRule type="containsText" dxfId="59" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="46" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H9))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H9 H11">
+  <conditionalFormatting sqref="H11 H9">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5765,7 +5671,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H6 H9:H11">
-    <cfRule type="containsText" dxfId="58" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="45" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5782,7 +5688,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="containsText" dxfId="57" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="44" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5799,7 +5705,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="containsText" dxfId="56" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="43" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5816,7 +5722,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="containsText" dxfId="55" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="42" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5833,7 +5739,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="containsText" dxfId="54" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="41" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5850,7 +5756,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="containsText" dxfId="53" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="40" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5880,7 +5786,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5897,46 +5803,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="35" t="s">
+      <c r="F1" s="29"/>
+      <c r="G1" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="34"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I2" s="1"/>
     </row>
@@ -5945,16 +5851,16 @@
         <v>2014</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="22" t="s">
-        <v>41</v>
-      </c>
       <c r="E3" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>0</v>
@@ -5965,7 +5871,7 @@
       <c r="H3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="36" t="str">
+      <c r="I3" s="23" t="str">
         <f>IF(OR(AND(G3&gt;1,G3&lt;&gt;"-"),AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
@@ -5975,16 +5881,16 @@
         <v>2015</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="22" t="s">
-        <v>41</v>
-      </c>
       <c r="E4" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>0</v>
@@ -5995,8 +5901,8 @@
       <c r="H4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="36" t="str">
-        <f t="shared" ref="I4:I12" si="0">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-"),AND(H4&gt;1,H4&lt;&gt;"-")),"Can exchange","")</f>
+      <c r="I4" s="23" t="str">
+        <f t="shared" ref="I4:I11" si="0">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-"),AND(H4&gt;1,H4&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -6005,16 +5911,16 @@
         <v>2016</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="22" t="s">
-        <v>41</v>
-      </c>
       <c r="E5" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>0</v>
@@ -6025,7 +5931,7 @@
       <c r="H5" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="36" t="str">
+      <c r="I5" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -6055,7 +5961,7 @@
       <c r="H6" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="36" t="str">
+      <c r="I6" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -6065,16 +5971,16 @@
         <v>2018</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="22" t="s">
-        <v>41</v>
-      </c>
       <c r="E7" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>0</v>
@@ -6085,7 +5991,7 @@
       <c r="H7" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="36" t="str">
+      <c r="I7" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -6095,16 +6001,16 @@
         <v>2019</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="22" t="s">
-        <v>41</v>
-      </c>
       <c r="E8" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>0</v>
@@ -6115,7 +6021,7 @@
       <c r="H8" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I8" s="36" t="str">
+      <c r="I8" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -6125,16 +6031,16 @@
         <v>2020</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="22" t="s">
-        <v>41</v>
-      </c>
       <c r="E9" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>0</v>
@@ -6145,7 +6051,7 @@
       <c r="H9" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I9" s="36" t="str">
+      <c r="I9" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -6155,16 +6061,16 @@
         <v>2021</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="22" t="s">
-        <v>41</v>
-      </c>
       <c r="E10" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>0</v>
@@ -6175,7 +6081,7 @@
       <c r="H10" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I10" s="36" t="str">
+      <c r="I10" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -6185,19 +6091,19 @@
         <v>2022</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="22" t="s">
-        <v>41</v>
-      </c>
       <c r="E11" s="4" t="s">
         <v>0</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G11" s="17" t="s">
         <v>0</v>
@@ -6205,7 +6111,7 @@
       <c r="H11" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I11" s="36" t="str">
+      <c r="I11" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -6235,7 +6141,7 @@
       <c r="H12" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I12" s="36" t="str">
+      <c r="I12" s="23" t="str">
         <f t="shared" ref="I12" si="1">IF(OR(AND(G12&gt;1,G12&lt;&gt;"-"),AND(H12&gt;1,H12&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
@@ -6250,7 +6156,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G3:G6">
-    <cfRule type="containsText" dxfId="52" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="39" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6267,7 +6173,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7 G10:G11">
-    <cfRule type="containsText" dxfId="51" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="38" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6284,7 +6190,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="containsText" dxfId="50" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="37" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6301,7 +6207,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="containsText" dxfId="49" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="36" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6318,7 +6224,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H6">
-    <cfRule type="containsText" dxfId="48" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="35" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6335,7 +6241,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="containsText" dxfId="47" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6352,11 +6258,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8 H10">
-    <cfRule type="containsText" dxfId="46" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H8))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8 H10">
+  <conditionalFormatting sqref="H10 H8">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6369,11 +6275,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9 H11">
-    <cfRule type="containsText" dxfId="45" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H9))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H9 H11">
+  <conditionalFormatting sqref="H11 H9">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6386,7 +6292,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H6 H9:H11">
-    <cfRule type="containsText" dxfId="44" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6403,7 +6309,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="containsText" dxfId="43" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6420,7 +6326,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="containsText" dxfId="42" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6437,7 +6343,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="containsText" dxfId="41" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6454,7 +6360,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="containsText" dxfId="40" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6471,7 +6377,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="containsText" dxfId="39" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6501,7 +6407,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6518,46 +6424,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="35" t="s">
+      <c r="F1" s="29"/>
+      <c r="G1" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="34"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I2" s="1"/>
     </row>
@@ -6566,16 +6472,16 @@
         <v>2014</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="22" t="s">
-        <v>41</v>
-      </c>
       <c r="E3" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>0</v>
@@ -6586,7 +6492,7 @@
       <c r="H3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="36" t="str">
+      <c r="I3" s="23" t="str">
         <f>IF(OR(AND(G3&gt;1,G3&lt;&gt;"-"),AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
@@ -6596,16 +6502,16 @@
         <v>2015</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="22" t="s">
-        <v>41</v>
-      </c>
       <c r="E4" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>0</v>
@@ -6616,8 +6522,8 @@
       <c r="H4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="36" t="str">
-        <f t="shared" ref="I4:I12" si="0">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-"),AND(H4&gt;1,H4&lt;&gt;"-")),"Can exchange","")</f>
+      <c r="I4" s="23" t="str">
+        <f t="shared" ref="I4:I11" si="0">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-"),AND(H4&gt;1,H4&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -6626,16 +6532,16 @@
         <v>2016</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="22" t="s">
-        <v>41</v>
-      </c>
       <c r="E5" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>0</v>
@@ -6646,7 +6552,7 @@
       <c r="H5" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="36" t="str">
+      <c r="I5" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -6676,7 +6582,7 @@
       <c r="H6" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="36" t="str">
+      <c r="I6" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -6686,17 +6592,17 @@
         <v>2018</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>45</v>
-      </c>
       <c r="F7" s="4" t="s">
         <v>0</v>
       </c>
@@ -6706,7 +6612,7 @@
       <c r="H7" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="36" t="str">
+      <c r="I7" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -6716,17 +6622,17 @@
         <v>2019</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>45</v>
-      </c>
       <c r="F8" s="4" t="s">
         <v>0</v>
       </c>
@@ -6736,7 +6642,7 @@
       <c r="H8" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I8" s="36" t="str">
+      <c r="I8" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -6746,17 +6652,17 @@
         <v>2020</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>45</v>
-      </c>
       <c r="F9" s="4" t="s">
         <v>0</v>
       </c>
@@ -6766,7 +6672,7 @@
       <c r="H9" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I9" s="36" t="str">
+      <c r="I9" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -6776,17 +6682,17 @@
         <v>2021</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>45</v>
-      </c>
       <c r="F10" s="4" t="s">
         <v>0</v>
       </c>
@@ -6796,7 +6702,7 @@
       <c r="H10" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I10" s="36" t="str">
+      <c r="I10" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -6806,27 +6712,27 @@
         <v>2022</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>45</v>
-      </c>
       <c r="G11" s="17" t="s">
         <v>0</v>
       </c>
       <c r="H11" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I11" s="36" t="str">
+      <c r="I11" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -6856,7 +6762,7 @@
       <c r="H12" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I12" s="36" t="str">
+      <c r="I12" s="23" t="str">
         <f t="shared" ref="I12" si="1">IF(OR(AND(G12&gt;1,G12&lt;&gt;"-"),AND(H12&gt;1,H12&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
@@ -6871,7 +6777,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G3:G6">
-    <cfRule type="containsText" dxfId="38" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6888,7 +6794,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7 G10:G11">
-    <cfRule type="containsText" dxfId="37" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6905,7 +6811,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="containsText" dxfId="36" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6922,7 +6828,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="containsText" dxfId="35" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6939,7 +6845,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H6">
-    <cfRule type="containsText" dxfId="34" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6956,7 +6862,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="containsText" dxfId="33" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6973,11 +6879,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8 H10">
-    <cfRule type="containsText" dxfId="32" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H8))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8 H10">
+  <conditionalFormatting sqref="H10 H8">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6990,11 +6896,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9 H11">
-    <cfRule type="containsText" dxfId="31" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H9))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H9 H11">
+  <conditionalFormatting sqref="H11 H9">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -7007,7 +6913,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H6 H9:H11">
-    <cfRule type="containsText" dxfId="30" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7024,7 +6930,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="containsText" dxfId="29" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7041,7 +6947,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="containsText" dxfId="28" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7058,7 +6964,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="containsText" dxfId="27" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7075,7 +6981,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="containsText" dxfId="26" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7092,7 +6998,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="containsText" dxfId="25" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7118,11 +7024,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7139,46 +7045,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="25" t="s">
+      <c r="F1" s="27"/>
+      <c r="G1" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="27"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="26"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I2" s="1"/>
     </row>
@@ -7187,16 +7093,16 @@
         <v>2014</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="22" t="s">
-        <v>41</v>
-      </c>
       <c r="E3" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>0</v>
@@ -7207,7 +7113,7 @@
       <c r="H3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="36" t="str">
+      <c r="I3" s="23" t="str">
         <f>IF(OR(AND(G3&gt;1,G3&lt;&gt;"-"),AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
@@ -7217,16 +7123,16 @@
         <v>2015</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="22" t="s">
-        <v>41</v>
-      </c>
       <c r="E4" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>0</v>
@@ -7237,7 +7143,7 @@
       <c r="H4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="36" t="str">
+      <c r="I4" s="23" t="str">
         <f t="shared" ref="I4:I12" si="0">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-"),AND(H4&gt;1,H4&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
@@ -7247,16 +7153,16 @@
         <v>2016</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="22" t="s">
-        <v>41</v>
-      </c>
       <c r="E5" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>0</v>
@@ -7267,7 +7173,7 @@
       <c r="H5" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="36" t="str">
+      <c r="I5" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -7297,7 +7203,7 @@
       <c r="H6" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="36" t="str">
+      <c r="I6" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -7307,17 +7213,17 @@
         <v>2018</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>45</v>
-      </c>
       <c r="F7" s="4" t="s">
         <v>0</v>
       </c>
@@ -7327,7 +7233,7 @@
       <c r="H7" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="36" t="str">
+      <c r="I7" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -7337,17 +7243,17 @@
         <v>2019</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>45</v>
-      </c>
       <c r="F8" s="4" t="s">
         <v>0</v>
       </c>
@@ -7357,7 +7263,7 @@
       <c r="H8" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I8" s="36" t="str">
+      <c r="I8" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -7367,17 +7273,17 @@
         <v>2020</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>45</v>
-      </c>
       <c r="F9" s="4" t="s">
         <v>0</v>
       </c>
@@ -7387,7 +7293,7 @@
       <c r="H9" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I9" s="36" t="str">
+      <c r="I9" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -7397,17 +7303,17 @@
         <v>2021</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>45</v>
-      </c>
       <c r="F10" s="4" t="s">
         <v>0</v>
       </c>
@@ -7417,7 +7323,7 @@
       <c r="H10" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I10" s="36" t="str">
+      <c r="I10" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -7427,27 +7333,27 @@
         <v>2022</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>45</v>
-      </c>
       <c r="G11" s="17" t="s">
         <v>0</v>
       </c>
       <c r="H11" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I11" s="36" t="str">
+      <c r="I11" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -7477,7 +7383,7 @@
       <c r="H12" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I12" s="36" t="str">
+      <c r="I12" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -7492,7 +7398,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G3:H6">
-    <cfRule type="containsText" dxfId="24" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7509,7 +7415,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:H7">
-    <cfRule type="containsText" dxfId="23" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7526,7 +7432,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:H8 G10:H10">
-    <cfRule type="containsText" dxfId="22" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7543,7 +7449,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:H9 G11:H11">
-    <cfRule type="containsText" dxfId="21" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7560,7 +7466,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H6 H9:H11">
-    <cfRule type="containsText" dxfId="20" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7577,7 +7483,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7594,7 +7500,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7611,7 +7517,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:H12">
-    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7628,7 +7534,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7670,13 +7576,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>15</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7684,10 +7590,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>17</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7695,10 +7601,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7706,10 +7612,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7717,10 +7623,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7728,10 +7634,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7739,10 +7645,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Collections/EURO/Latvia/#EURO#Latvia#Regular#[2014-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Latvia/#EURO#Latvia#Regular#[2014-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Latvia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE89CD6-9525-4DA2-AE02-473D0635AD69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E80A88-30E7-48EB-BCF3-71603F2B6134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5050" yWindow="3660" windowWidth="28800" windowHeight="17160" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6560" yWindow="1200" windowWidth="28720" windowHeight="19550" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -2885,7 +2885,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(G7))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G10 G7">
+  <conditionalFormatting sqref="G7 G10">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2919,7 +2919,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G11 G9">
+  <conditionalFormatting sqref="G9 G11">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2970,7 +2970,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H8))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H10 H8">
+  <conditionalFormatting sqref="H8 H10">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2987,7 +2987,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H9))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11 H9">
+  <conditionalFormatting sqref="H9 H11">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3575,7 +3575,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H8))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H10 H8">
+  <conditionalFormatting sqref="H8 H10">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3592,7 +3592,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H9))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11 H9">
+  <conditionalFormatting sqref="H9 H11">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3716,11 +3716,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3809,7 +3809,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="17" t="s">
         <v>0</v>
@@ -4178,7 +4178,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H9))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11 H9">
+  <conditionalFormatting sqref="H9 H11">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4263,7 +4263,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(I8))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I10 I8">
+  <conditionalFormatting sqref="I8 I10">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4280,7 +4280,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(I9))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I11 I9">
+  <conditionalFormatting sqref="I9 I11">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4433,7 +4433,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(J8))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J10 J8">
+  <conditionalFormatting sqref="J8 J10">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4450,7 +4450,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(J9))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J11 J9">
+  <conditionalFormatting sqref="J9 J11">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5020,7 +5020,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H8))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H10 H8">
+  <conditionalFormatting sqref="H8 H10">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5037,7 +5037,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H9))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11 H9">
+  <conditionalFormatting sqref="H9 H11">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5641,7 +5641,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H8))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H10 H8">
+  <conditionalFormatting sqref="H8 H10">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5658,7 +5658,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H9))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11 H9">
+  <conditionalFormatting sqref="H9 H11">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6262,7 +6262,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H8))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H10 H8">
+  <conditionalFormatting sqref="H8 H10">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6279,7 +6279,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H9))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11 H9">
+  <conditionalFormatting sqref="H9 H11">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6883,7 +6883,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H8))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H10 H8">
+  <conditionalFormatting sqref="H8 H10">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6900,7 +6900,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H9))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11 H9">
+  <conditionalFormatting sqref="H9 H11">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -7024,7 +7024,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>

--- a/Collections/EURO/Latvia/#EURO#Latvia#Regular#[2014-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Latvia/#EURO#Latvia#Regular#[2014-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Latvia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E80A88-30E7-48EB-BCF3-71603F2B6134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81A475B-F412-4C9A-80DD-EA674842925F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6560" yWindow="1200" windowWidth="28720" windowHeight="19550" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -23,6 +23,16 @@
     <sheet name="2€" sheetId="12" r:id="rId8"/>
     <sheet name="Links" sheetId="6" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'1€'!$B$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'10cents'!$B$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1cent'!$B$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'2€'!$B$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'20cents'!$B$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2cents'!$B$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'50cents'!$B$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'5cents'!$B$2:$G$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -739,7 +749,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="51">
   <si>
     <t>-</t>
   </si>
@@ -751,12 +761,6 @@
   </si>
   <si>
     <t>Mintage</t>
-  </si>
-  <si>
-    <t>Subtype_1</t>
-  </si>
-  <si>
-    <t>Subtype_2</t>
   </si>
   <si>
     <t>1cent</t>
@@ -890,6 +894,15 @@
   <si>
     <t>Subject</t>
   </si>
+  <si>
+    <t>Subtype_1#Special_marks_1</t>
+  </si>
+  <si>
+    <t>Subtype_2#Special_distinctions_1</t>
+  </si>
+  <si>
+    <t>Subtype_2#Map_of_Europe</t>
+  </si>
 </sst>
 </file>
 
@@ -948,6 +961,8 @@
     <font>
       <sz val="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
@@ -1148,7 +1163,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1211,6 +1226,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2510,63 +2528,62 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" customWidth="1"/>
-    <col min="7" max="7" width="3.81640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="3.81640625" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="2" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.6328125" customWidth="1"/>
+    <col min="7" max="7" width="3.6328125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="3.6328125" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="28"/>
+      <c r="E1" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="30"/>
+      <c r="G1" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="32"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="26"/>
+      <c r="B2" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I2" s="1"/>
     </row>
@@ -2575,14 +2592,14 @@
         <v>2014</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>0</v>
@@ -2603,14 +2620,14 @@
         <v>2015</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>0</v>
@@ -2631,14 +2648,14 @@
         <v>2016</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>0</v>
@@ -2689,14 +2706,14 @@
         <v>2018</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>0</v>
@@ -2717,14 +2734,14 @@
         <v>2019</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>0</v>
@@ -2745,14 +2762,14 @@
         <v>2020</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>0</v>
@@ -2773,14 +2790,14 @@
         <v>2021</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>0</v>
@@ -2801,17 +2818,17 @@
         <v>2022</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="4" t="s">
         <v>0</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G11" s="17" t="s">
         <v>0</v>
@@ -2855,9 +2872,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
@@ -2885,7 +2902,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(G7))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7 G10">
+  <conditionalFormatting sqref="G10 G7">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2919,7 +2936,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G9 G11">
+  <conditionalFormatting sqref="G11 G9">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2970,7 +2987,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H8))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8 H10">
+  <conditionalFormatting sqref="H10 H8">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2987,7 +3004,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H9))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H9 H11">
+  <conditionalFormatting sqref="H11 H9">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3115,63 +3132,62 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" customWidth="1"/>
-    <col min="7" max="7" width="3.81640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="3.81640625" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="2" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.6328125" customWidth="1"/>
+    <col min="7" max="7" width="3.6328125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="3.6328125" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="28"/>
+      <c r="E1" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="30"/>
+      <c r="G1" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="32"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="26"/>
+      <c r="B2" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I2" s="1"/>
     </row>
@@ -3180,14 +3196,14 @@
         <v>2014</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>0</v>
@@ -3208,14 +3224,14 @@
         <v>2015</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>0</v>
@@ -3236,14 +3252,14 @@
         <v>2016</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>0</v>
@@ -3294,14 +3310,14 @@
         <v>2018</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>0</v>
@@ -3322,14 +3338,14 @@
         <v>2019</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>0</v>
@@ -3350,14 +3366,14 @@
         <v>2020</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>0</v>
@@ -3378,14 +3394,14 @@
         <v>2021</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>0</v>
@@ -3406,17 +3422,17 @@
         <v>2022</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="4" t="s">
         <v>0</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G11" s="17" t="s">
         <v>0</v>
@@ -3460,9 +3476,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
@@ -3575,7 +3591,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H8))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8 H10">
+  <conditionalFormatting sqref="H10 H8">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3592,7 +3608,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H9))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H9 H11">
+  <conditionalFormatting sqref="H11 H9">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3716,75 +3732,74 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="2" customWidth="1"/>
-    <col min="6" max="7" width="12.453125" customWidth="1"/>
-    <col min="8" max="8" width="3.81640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="2" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="2" customWidth="1"/>
+    <col min="6" max="7" width="12.6328125" customWidth="1"/>
+    <col min="8" max="8" width="3.6328125" style="2" customWidth="1"/>
     <col min="9" max="10" width="3.81640625" customWidth="1"/>
     <col min="11" max="11" width="13.7265625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="28"/>
+      <c r="E1" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="33"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="35"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="26"/>
+      <c r="B2" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="32"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="34"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K2" s="1"/>
     </row>
@@ -3793,14 +3808,14 @@
         <v>2014</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>0</v>
@@ -3827,14 +3842,14 @@
         <v>2015</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>0</v>
@@ -3861,14 +3876,14 @@
         <v>2016</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>0</v>
@@ -3931,14 +3946,14 @@
         <v>2018</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>0</v>
@@ -3965,14 +3980,14 @@
         <v>2019</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>0</v>
@@ -3999,14 +4014,14 @@
         <v>2020</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>0</v>
@@ -4033,14 +4048,14 @@
         <v>2021</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>0</v>
@@ -4067,17 +4082,17 @@
         <v>2022</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="4" t="s">
         <v>0</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>0</v>
@@ -4101,10 +4116,10 @@
         <v>2023</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="4" t="s">
@@ -4114,7 +4129,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H12" s="17" t="s">
         <v>0</v>
@@ -4131,9 +4146,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:G2" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
@@ -4178,7 +4193,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H9))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H9 H11">
+  <conditionalFormatting sqref="H11 H9">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4263,7 +4278,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(I8))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8 I10">
+  <conditionalFormatting sqref="I10 I8">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4280,7 +4295,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(I9))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I9 I11">
+  <conditionalFormatting sqref="I11 I9">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4433,7 +4448,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(J8))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J8 J10">
+  <conditionalFormatting sqref="J10 J8">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4450,7 +4465,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(J9))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J9 J11">
+  <conditionalFormatting sqref="J11 J9">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4544,63 +4559,62 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" customWidth="1"/>
-    <col min="7" max="7" width="3.81640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="3.81640625" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="2" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.6328125" customWidth="1"/>
+    <col min="7" max="7" width="3.6328125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="3.6328125" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="28" t="s">
+      <c r="D1" s="39"/>
+      <c r="E1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="31"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="32"/>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="37"/>
-      <c r="B2" s="25"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="24" t="s">
+        <v>47</v>
+      </c>
       <c r="C2" s="3" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I2" s="1"/>
     </row>
@@ -4609,16 +4623,16 @@
         <v>2014</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>0</v>
@@ -4639,16 +4653,16 @@
         <v>2015</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>0</v>
@@ -4669,16 +4683,16 @@
         <v>2016</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>0</v>
@@ -4729,16 +4743,16 @@
         <v>2018</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="20" t="s">
         <v>42</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>44</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>0</v>
@@ -4759,16 +4773,16 @@
         <v>2019</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="20" t="s">
         <v>42</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>44</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>0</v>
@@ -4789,16 +4803,16 @@
         <v>2020</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="20" t="s">
         <v>42</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>44</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>0</v>
@@ -4819,16 +4833,16 @@
         <v>2021</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="20" t="s">
         <v>42</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>44</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>0</v>
@@ -4849,19 +4863,19 @@
         <v>2022</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="20" t="s">
         <v>42</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>44</v>
       </c>
       <c r="G11" s="17" t="s">
         <v>0</v>
@@ -4905,9 +4919,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
@@ -5020,7 +5034,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H8))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8 H10">
+  <conditionalFormatting sqref="H10 H8">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5037,7 +5051,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H9))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H9 H11">
+  <conditionalFormatting sqref="H11 H9">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5165,63 +5179,62 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" customWidth="1"/>
-    <col min="7" max="7" width="3.81640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="3.81640625" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="2" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.6328125" customWidth="1"/>
+    <col min="7" max="7" width="3.6328125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="3.6328125" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="31"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="32"/>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="24" t="s">
+        <v>47</v>
+      </c>
       <c r="C2" s="3" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I2" s="1"/>
     </row>
@@ -5230,16 +5243,16 @@
         <v>2014</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>0</v>
@@ -5260,16 +5273,16 @@
         <v>2015</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>0</v>
@@ -5290,16 +5303,16 @@
         <v>2016</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>0</v>
@@ -5350,16 +5363,16 @@
         <v>2018</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="20" t="s">
         <v>42</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>44</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>0</v>
@@ -5380,16 +5393,16 @@
         <v>2019</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="20" t="s">
         <v>42</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>44</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>0</v>
@@ -5410,16 +5423,16 @@
         <v>2020</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="20" t="s">
         <v>42</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>44</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>0</v>
@@ -5440,16 +5453,16 @@
         <v>2021</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="20" t="s">
         <v>42</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>44</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>0</v>
@@ -5470,19 +5483,19 @@
         <v>2022</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="20" t="s">
         <v>42</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>44</v>
       </c>
       <c r="G11" s="17" t="s">
         <v>0</v>
@@ -5526,9 +5539,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0400-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
@@ -5641,7 +5654,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H8))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8 H10">
+  <conditionalFormatting sqref="H10 H8">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5658,7 +5671,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H9))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H9 H11">
+  <conditionalFormatting sqref="H11 H9">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5786,63 +5799,62 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" customWidth="1"/>
-    <col min="7" max="7" width="3.81640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="3.81640625" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="2" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.6328125" customWidth="1"/>
+    <col min="7" max="7" width="3.6328125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="3.6328125" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="31"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="32"/>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="24" t="s">
+        <v>47</v>
+      </c>
       <c r="C2" s="3" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I2" s="1"/>
     </row>
@@ -5851,16 +5863,16 @@
         <v>2014</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>0</v>
@@ -5881,16 +5893,16 @@
         <v>2015</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>0</v>
@@ -5911,16 +5923,16 @@
         <v>2016</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>0</v>
@@ -5971,16 +5983,16 @@
         <v>2018</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="20" t="s">
         <v>42</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>44</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>0</v>
@@ -6001,16 +6013,16 @@
         <v>2019</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="20" t="s">
         <v>42</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>44</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>0</v>
@@ -6031,16 +6043,16 @@
         <v>2020</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="20" t="s">
         <v>42</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>44</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>0</v>
@@ -6061,16 +6073,16 @@
         <v>2021</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="20" t="s">
         <v>42</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>44</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>0</v>
@@ -6091,19 +6103,19 @@
         <v>2022</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="20" t="s">
         <v>42</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>44</v>
       </c>
       <c r="G11" s="17" t="s">
         <v>0</v>
@@ -6147,9 +6159,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0500-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
@@ -6262,7 +6274,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H8))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8 H10">
+  <conditionalFormatting sqref="H10 H8">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6279,7 +6291,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H9))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H9 H11">
+  <conditionalFormatting sqref="H11 H9">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6407,63 +6419,62 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" customWidth="1"/>
-    <col min="7" max="7" width="3.81640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="3.81640625" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="2" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.6328125" customWidth="1"/>
+    <col min="7" max="7" width="3.6328125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="3.6328125" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="31"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="32"/>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="24" t="s">
+        <v>47</v>
+      </c>
       <c r="C2" s="3" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I2" s="1"/>
     </row>
@@ -6472,16 +6483,16 @@
         <v>2014</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>0</v>
@@ -6502,16 +6513,16 @@
         <v>2015</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>0</v>
@@ -6532,16 +6543,16 @@
         <v>2016</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>0</v>
@@ -6592,16 +6603,16 @@
         <v>2018</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>0</v>
@@ -6622,16 +6633,16 @@
         <v>2019</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>0</v>
@@ -6652,16 +6663,16 @@
         <v>2020</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>0</v>
@@ -6682,16 +6693,16 @@
         <v>2021</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>0</v>
@@ -6712,19 +6723,19 @@
         <v>2022</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>0</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G11" s="17" t="s">
         <v>0</v>
@@ -6768,9 +6779,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0600-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
@@ -6883,7 +6894,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H8))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8 H10">
+  <conditionalFormatting sqref="H10 H8">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6900,7 +6911,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H9))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H9 H11">
+  <conditionalFormatting sqref="H11 H9">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -7024,67 +7035,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" customWidth="1"/>
-    <col min="7" max="7" width="3.81640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="3.81640625" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="2" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.6328125" customWidth="1"/>
+    <col min="7" max="7" width="3.6328125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="3.6328125" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="26" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="27"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="28"/>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="24" t="s">
+        <v>47</v>
+      </c>
       <c r="C2" s="3" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I2" s="1"/>
     </row>
@@ -7093,16 +7103,16 @@
         <v>2014</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>0</v>
@@ -7123,16 +7133,16 @@
         <v>2015</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>0</v>
@@ -7153,16 +7163,16 @@
         <v>2016</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>0</v>
@@ -7213,16 +7223,16 @@
         <v>2018</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>0</v>
@@ -7243,16 +7253,16 @@
         <v>2019</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>0</v>
@@ -7273,16 +7283,16 @@
         <v>2020</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>0</v>
@@ -7303,16 +7313,16 @@
         <v>2021</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>0</v>
@@ -7333,19 +7343,19 @@
         <v>2022</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>0</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G11" s="17" t="s">
         <v>0</v>
@@ -7389,9 +7399,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0700-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
@@ -7576,13 +7586,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7590,10 +7600,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7601,10 +7611,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7612,10 +7622,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7623,10 +7633,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7634,10 +7644,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7645,10 +7655,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
